--- a/Excels/ABA Rental Lot Info.xlsx
+++ b/Excels/ABA Rental Lot Info.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brock.ullyott\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tszyeunglam/GitHub/CPSC471_Project/Excels/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="4900" yWindow="6280" windowWidth="22300" windowHeight="9740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -365,17 +371,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,7 +392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -397,7 +403,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
